--- a/data/trans_orig/P71_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>302672</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>273500</v>
+        <v>274639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>332099</v>
+        <v>332491</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2995947463038429</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2707195471091335</v>
+        <v>0.2718468113292287</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3287230999645532</v>
+        <v>0.3291110358464804</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>499</v>
@@ -765,19 +765,19 @@
         <v>514733</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>478318</v>
+        <v>482292</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>550875</v>
+        <v>551754</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4010554538221021</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3726825950814428</v>
+        <v>0.3757786446627812</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4292155692228169</v>
+        <v>0.4299003218142954</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>803</v>
@@ -786,19 +786,19 @@
         <v>817405</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>773950</v>
+        <v>771697</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>867293</v>
+        <v>863931</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3563669464426584</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3374217004292204</v>
+        <v>0.3364395776704759</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3781168137251347</v>
+        <v>0.3766510524628581</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>707598</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>678171</v>
+        <v>677779</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>736770</v>
+        <v>735631</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7004052536961571</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6712769000354468</v>
+        <v>0.6708889641535196</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7292804528908665</v>
+        <v>0.7281531886707713</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>760</v>
@@ -836,19 +836,19 @@
         <v>768713</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>732571</v>
+        <v>731692</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>805128</v>
+        <v>801154</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5989445461778979</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5707844307771831</v>
+        <v>0.5700996781857046</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6273174049185573</v>
+        <v>0.6242213553372188</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1472</v>
@@ -857,19 +857,19 @@
         <v>1476311</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1426423</v>
+        <v>1429785</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1519766</v>
+        <v>1522019</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6436330535573416</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6218831862748653</v>
+        <v>0.6233489475371419</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6625782995707796</v>
+        <v>0.6635604223295241</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>243797</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>215012</v>
+        <v>214546</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>273438</v>
+        <v>273312</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1456498176301108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1284526356562688</v>
+        <v>0.128174687130089</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1633579554233252</v>
+        <v>0.163282300069722</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>335</v>
@@ -982,19 +982,19 @@
         <v>351085</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>317270</v>
+        <v>318503</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>384928</v>
+        <v>381126</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2247821228150622</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.203131725891308</v>
+        <v>0.2039210532418789</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2464498284437852</v>
+        <v>0.244015394436494</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>569</v>
@@ -1003,19 +1003,19 @@
         <v>594883</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>550921</v>
+        <v>552240</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>639572</v>
+        <v>639825</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1838468532209792</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1702606572891079</v>
+        <v>0.1706683782173851</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1976578551674119</v>
+        <v>0.1977360794887554</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1430062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1400421</v>
+        <v>1400547</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1458847</v>
+        <v>1459313</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8543501823698891</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8366420445766747</v>
+        <v>0.836717699930278</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8715473643437311</v>
+        <v>0.8718253128699111</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1194</v>
@@ -1053,19 +1053,19 @@
         <v>1210807</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1176964</v>
+        <v>1180766</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1244622</v>
+        <v>1243389</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7752178771849377</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7535501715562147</v>
+        <v>0.7559846055635059</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.796868274108692</v>
+        <v>0.7960789467581209</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2589</v>
@@ -1074,19 +1074,19 @@
         <v>2640868</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2596179</v>
+        <v>2595926</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2684830</v>
+        <v>2683511</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8161531467790208</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.802342144832588</v>
+        <v>0.8022639205112446</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.829739342710892</v>
+        <v>0.8293316217826149</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>37672</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27323</v>
+        <v>27341</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51198</v>
+        <v>51813</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06890879521803915</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04997793903623506</v>
+        <v>0.05001155877780184</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09364856185118377</v>
+        <v>0.09477474441713413</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1199,19 +1199,19 @@
         <v>56515</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42508</v>
+        <v>43275</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71968</v>
+        <v>73025</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1203388296376468</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09051256546175669</v>
+        <v>0.0921468737069617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1532435921546492</v>
+        <v>0.1554949895475109</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -1220,19 +1220,19 @@
         <v>94187</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76493</v>
+        <v>76729</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116746</v>
+        <v>114138</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09267384398743851</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07526360558669815</v>
+        <v>0.07549597625976724</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1148696399582489</v>
+        <v>0.1123039916613177</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>509028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>495502</v>
+        <v>494887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>519377</v>
+        <v>519359</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9310912047819608</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9063514381488162</v>
+        <v>0.9052252555828664</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9500220609637648</v>
+        <v>0.9499884412221982</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>395</v>
@@ -1270,19 +1270,19 @@
         <v>413116</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>397663</v>
+        <v>396606</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>427123</v>
+        <v>426356</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8796611703623531</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8467564078453508</v>
+        <v>0.844505010452489</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9094874345382433</v>
+        <v>0.9078531262930384</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>882</v>
@@ -1291,19 +1291,19 @@
         <v>922144</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>899585</v>
+        <v>902193</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>939838</v>
+        <v>939602</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9073261560125615</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8851303600417512</v>
+        <v>0.8876960083386823</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9247363944133018</v>
+        <v>0.9245040237402328</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>584141</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1808023121121876</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>885</v>
@@ -1416,19 +1416,19 @@
         <v>922333</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2782328227919453</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1459</v>
@@ -1437,19 +1437,19 @@
         <v>1506475</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2301437521271422</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2646688</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2606242</v>
+        <v>2601543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2694067</v>
+        <v>2690564</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8191976878878124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8066790601244465</v>
+        <v>0.8052245422409599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8338624139311396</v>
+        <v>0.8327783244414475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2349</v>
@@ -1487,19 +1487,19 @@
         <v>2392636</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2338401</v>
+        <v>2342058</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2444903</v>
+        <v>2440336</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7217671772080547</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7054067408223731</v>
+        <v>0.7065098476489129</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7375343094164073</v>
+        <v>0.7361563794833301</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4943</v>
@@ -1508,19 +1508,19 @@
         <v>5039323</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4978625</v>
+        <v>4974609</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5106093</v>
+        <v>5108869</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7698562478728578</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7605833310618303</v>
+        <v>0.7599698002337864</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7800565471501815</v>
+        <v>0.7804806387698907</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>394020</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>361829</v>
+        <v>362372</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>427754</v>
+        <v>425142</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4070112869055997</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3737588325807016</v>
+        <v>0.3743195797891652</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4418581188910477</v>
+        <v>0.4391592173432267</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>447</v>
@@ -1872,19 +1872,19 @@
         <v>483485</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>446511</v>
+        <v>448608</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>515938</v>
+        <v>518900</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3634241265037876</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3356315247026248</v>
+        <v>0.3372074172389229</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3878179368466376</v>
+        <v>0.3900447393945489</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>815</v>
@@ -1893,19 +1893,19 @@
         <v>877505</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>833575</v>
+        <v>829009</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>928224</v>
+        <v>923485</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3817826044443551</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3626696155545443</v>
+        <v>0.3606830850134712</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4038491944159704</v>
+        <v>0.4017873913431899</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>574061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>540327</v>
+        <v>542939</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>606252</v>
+        <v>605709</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5929887130944004</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5581418811089524</v>
+        <v>0.5608407826567732</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6262411674192983</v>
+        <v>0.6256804202108348</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>793</v>
@@ -1943,19 +1943,19 @@
         <v>846876</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>814423</v>
+        <v>811461</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>883850</v>
+        <v>881753</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6365758734962124</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6121820631533624</v>
+        <v>0.6099552606054512</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6643684752973753</v>
+        <v>0.6627925827610772</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1327</v>
@@ -1964,19 +1964,19 @@
         <v>1420937</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1370218</v>
+        <v>1374957</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1464867</v>
+        <v>1469433</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6182173955556449</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5961508055840296</v>
+        <v>0.59821260865681</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6373303844454556</v>
+        <v>0.6393169149865288</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>590063</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>547144</v>
+        <v>546494</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>631687</v>
+        <v>632623</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3012309851849765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2793207633453202</v>
+        <v>0.2789889883840422</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.322480617004466</v>
+        <v>0.3229582546241514</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>523</v>
@@ -2089,19 +2089,19 @@
         <v>567802</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>526381</v>
+        <v>527953</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>611213</v>
+        <v>609451</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3243499563271007</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.300688192110724</v>
+        <v>0.301586168626351</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3491477881077053</v>
+        <v>0.348141365655107</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1079</v>
@@ -2110,19 +2110,19 @@
         <v>1157865</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1097593</v>
+        <v>1100525</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1213265</v>
+        <v>1217062</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3121415049677333</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2958932326836247</v>
+        <v>0.2966835983079557</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3270765004600628</v>
+        <v>0.328099974693692</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1368775</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1327151</v>
+        <v>1326215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1411694</v>
+        <v>1412344</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6987690148150234</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6775193829955342</v>
+        <v>0.6770417453758487</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7206792366546797</v>
+        <v>0.7210110116159579</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1106</v>
@@ -2160,19 +2160,19 @@
         <v>1182784</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1139373</v>
+        <v>1141135</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1224205</v>
+        <v>1222633</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6756500436728994</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6508522118922947</v>
+        <v>0.6518586343448931</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6993118078892759</v>
+        <v>0.698413831373649</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2401</v>
@@ -2181,19 +2181,19 @@
         <v>2551559</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2496159</v>
+        <v>2492362</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2611831</v>
+        <v>2608899</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6878584950322667</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6729234995399372</v>
+        <v>0.6719000253063078</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7041067673163754</v>
+        <v>0.703316401692044</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>58096</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45340</v>
+        <v>44247</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75393</v>
+        <v>76810</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1222477610723166</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0954068013573348</v>
+        <v>0.09310769739671916</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1586454712002051</v>
+        <v>0.16162709986267</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -2306,19 +2306,19 @@
         <v>67532</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53719</v>
+        <v>52250</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83854</v>
+        <v>84763</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1475474235827715</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1173686706564059</v>
+        <v>0.1141580785022317</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1832092891365187</v>
+        <v>0.1851955368086134</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>112</v>
@@ -2327,19 +2327,19 @@
         <v>125628</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>104313</v>
+        <v>104593</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>148560</v>
+        <v>150825</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.134659854464461</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1118132547325843</v>
+        <v>0.1121125871908492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1592409191636054</v>
+        <v>0.16166851955194</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>417133</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>399836</v>
+        <v>398419</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>429889</v>
+        <v>430982</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8777522389276834</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8413545287997949</v>
+        <v>0.8383729001373298</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9045931986426659</v>
+        <v>0.9068923026032808</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>351</v>
@@ -2377,19 +2377,19 @@
         <v>390164</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>373842</v>
+        <v>372933</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>403977</v>
+        <v>405446</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8524525764172285</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8167907108634812</v>
+        <v>0.8148044631913866</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8826313293435941</v>
+        <v>0.8858419214977682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>732</v>
@@ -2398,19 +2398,19 @@
         <v>807297</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>784365</v>
+        <v>782100</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>828612</v>
+        <v>828332</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8653401455355391</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8407590808363938</v>
+        <v>0.8383314804480601</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8881867452674154</v>
+        <v>0.8878874128091508</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1042178</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>993092</v>
+        <v>985324</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1101874</v>
+        <v>1089849</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3063294852496006</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2919015140896732</v>
+        <v>0.289618311415339</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3238760989257124</v>
+        <v>0.320341449570003</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1030</v>
@@ -2523,19 +2523,19 @@
         <v>1118820</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1061940</v>
+        <v>1059694</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1177464</v>
+        <v>1178019</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3161719511977347</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3000980553375811</v>
+        <v>0.2994633644537888</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3327445600196953</v>
+        <v>0.3329012997657753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2006</v>
@@ -2544,19 +2544,19 @@
         <v>2160998</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2078383</v>
+        <v>2080461</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2245326</v>
+        <v>2239769</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3113474971722998</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.299444728381895</v>
+        <v>0.299744129365747</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3234971169282431</v>
+        <v>0.3226965764767466</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2359970</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2300274</v>
+        <v>2312299</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2409056</v>
+        <v>2416824</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6936705147503994</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6761239010742875</v>
+        <v>0.6796585504299969</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7080984859103268</v>
+        <v>0.7103816885846609</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2250</v>
@@ -2594,19 +2594,19 @@
         <v>2419823</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2361179</v>
+        <v>2360624</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2476703</v>
+        <v>2478949</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6838280488022653</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6672554399803048</v>
+        <v>0.6670987002342249</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6999019446624191</v>
+        <v>0.7005366355462113</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4460</v>
@@ -2615,19 +2615,19 @@
         <v>4779793</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4695465</v>
+        <v>4701022</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4862408</v>
+        <v>4860330</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6886525028277002</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6765028830717569</v>
+        <v>0.6773034235232533</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.700555271618105</v>
+        <v>0.7002558706342527</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>354723</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>328035</v>
+        <v>326305</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>381809</v>
+        <v>381570</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4746744428359813</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4389614808255563</v>
+        <v>0.4366466511887355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.510918829556179</v>
+        <v>0.5105995450478984</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>448</v>
@@ -2979,19 +2979,19 @@
         <v>493047</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>459337</v>
+        <v>461570</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>524394</v>
+        <v>525697</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.498798258672326</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4646953052416466</v>
+        <v>0.4669536176838626</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5305109761744918</v>
+        <v>0.5318285474181482</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>800</v>
@@ -3000,19 +3000,19 @@
         <v>847771</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>805194</v>
+        <v>805358</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>889385</v>
+        <v>888931</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4884122623772842</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4638828807164581</v>
+        <v>0.4639779124898246</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5123868323185626</v>
+        <v>0.5121250579221505</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>392575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>365489</v>
+        <v>365728</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>419263</v>
+        <v>420993</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5253255571640186</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.489081170443821</v>
+        <v>0.4894004549521013</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5610385191744439</v>
+        <v>0.5633533488112645</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>439</v>
@@ -3050,19 +3050,19 @@
         <v>495423</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>464076</v>
+        <v>462773</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>529133</v>
+        <v>526900</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.501201741327674</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4694890238255084</v>
+        <v>0.4681714525818515</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.535304694758354</v>
+        <v>0.5330463823161373</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>842</v>
@@ -3071,19 +3071,19 @@
         <v>887998</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>846384</v>
+        <v>846838</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>930575</v>
+        <v>930411</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5115877376227158</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4876131676814374</v>
+        <v>0.4878749420778495</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5361171192835419</v>
+        <v>0.5360220875101753</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>705630</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>659520</v>
+        <v>666134</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>751450</v>
+        <v>751913</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3428265209433881</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3204240338672812</v>
+        <v>0.3236372862260805</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3650877066510588</v>
+        <v>0.3653127889555201</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>662</v>
@@ -3196,19 +3196,19 @@
         <v>686457</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>644153</v>
+        <v>640187</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>731552</v>
+        <v>729158</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3470804319247154</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3256909964440594</v>
+        <v>0.3236857524119149</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3698809731295413</v>
+        <v>0.3686706374106996</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1316</v>
@@ -3217,19 +3217,19 @@
         <v>1392088</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1323145</v>
+        <v>1328708</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1448303</v>
+        <v>1454311</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3449110708794674</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3278293748509734</v>
+        <v>0.3292078739955427</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3588391901148142</v>
+        <v>0.3603278731581304</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1352642</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1306822</v>
+        <v>1306359</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1398752</v>
+        <v>1392138</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6571734790566118</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6349122933489408</v>
+        <v>0.6346872110444799</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6795759661327185</v>
+        <v>0.6763627137739195</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1236</v>
@@ -3267,19 +3267,19 @@
         <v>1291347</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1246252</v>
+        <v>1248646</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1333651</v>
+        <v>1337617</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6529195680752846</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6301190268704586</v>
+        <v>0.6313293625893004</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6743090035559406</v>
+        <v>0.6763142475880848</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2517</v>
@@ -3288,19 +3288,19 @@
         <v>2643989</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2587774</v>
+        <v>2581766</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2712932</v>
+        <v>2707369</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6550889291205326</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6411608098851859</v>
+        <v>0.6396721268418697</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6721706251490267</v>
+        <v>0.6707921260044573</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>59179</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45531</v>
+        <v>44953</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74936</v>
+        <v>74462</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1085888195466148</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08354676509325218</v>
+        <v>0.08248640777285239</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1375017785700003</v>
+        <v>0.1366324644291338</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -3413,19 +3413,19 @@
         <v>76978</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61821</v>
+        <v>62699</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96351</v>
+        <v>95534</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1404514978143535</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1127957717272236</v>
+        <v>0.1143977351890104</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1757994256853174</v>
+        <v>0.1743084853034554</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -3434,19 +3434,19 @@
         <v>136157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112910</v>
+        <v>115334</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160829</v>
+        <v>161261</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1245652997156808</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1032978765092206</v>
+        <v>0.1055154215520724</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1471367931494154</v>
+        <v>0.1475321400602055</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>485800</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>470043</v>
+        <v>470517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>499448</v>
+        <v>500026</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8914111804533853</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8624982214299995</v>
+        <v>0.8633675355708662</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9164532349067478</v>
+        <v>0.9175135922271476</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>450</v>
@@ -3484,19 +3484,19 @@
         <v>471098</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>451725</v>
+        <v>452542</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>486255</v>
+        <v>485377</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8595485021856465</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8242005743146824</v>
+        <v>0.8256915146965446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8872042282727762</v>
+        <v>0.8856022648109897</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>897</v>
@@ -3505,19 +3505,19 @@
         <v>956898</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>932226</v>
+        <v>931794</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>980145</v>
+        <v>977721</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8754347002843191</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8528632068505847</v>
+        <v>0.8524678599397946</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8967021234907794</v>
+        <v>0.8944845784479276</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1119533</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1064938</v>
+        <v>1061417</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1174949</v>
+        <v>1175109</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3341339484675784</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3178398422571127</v>
+        <v>0.31678875262821</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.350673417821986</v>
+        <v>0.3507211910606464</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1185</v>
@@ -3630,19 +3630,19 @@
         <v>1256483</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1198107</v>
+        <v>1195276</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1317001</v>
+        <v>1310937</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3575290725060091</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3409184780922265</v>
+        <v>0.3401128898331376</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3747494575504083</v>
+        <v>0.3730239286318676</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2243</v>
@@ -3651,19 +3651,19 @@
         <v>2376015</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2296412</v>
+        <v>2288299</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2458748</v>
+        <v>2456482</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.34611062208909</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3345148782253871</v>
+        <v>0.3333331540112371</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3581621563809296</v>
+        <v>0.3578321591123753</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2231017</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2175601</v>
+        <v>2175441</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2285612</v>
+        <v>2289133</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6658660515324216</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6493265821780142</v>
+        <v>0.6492788089393535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6821601577428874</v>
+        <v>0.68321124737179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2125</v>
@@ -3701,19 +3701,19 @@
         <v>2257868</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2197350</v>
+        <v>2203414</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2316244</v>
+        <v>2319075</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6424709274939909</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6252505424495918</v>
+        <v>0.6269760713681325</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6590815219077735</v>
+        <v>0.6598871101668624</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4256</v>
@@ -3722,19 +3722,19 @@
         <v>4488886</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4406153</v>
+        <v>4408419</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4568489</v>
+        <v>4576602</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.65388937791091</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6418378436190706</v>
+        <v>0.6421678408876239</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6654851217746131</v>
+        <v>0.6666668459887627</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>163287</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>143885</v>
+        <v>143029</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>185388</v>
+        <v>183462</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2885263029880936</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2542430435570665</v>
+        <v>0.2527309768096593</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3275798771083923</v>
+        <v>0.3241756715131173</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>373</v>
@@ -4086,19 +4086,19 @@
         <v>227045</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>208387</v>
+        <v>209077</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>248038</v>
+        <v>248893</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2801786605326572</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2571542084388093</v>
+        <v>0.2580057184800905</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3060844178032029</v>
+        <v>0.3071391845676089</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>546</v>
@@ -4107,19 +4107,19 @@
         <v>390332</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>360776</v>
+        <v>360250</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>421416</v>
+        <v>422183</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2836112204394755</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.262136753792055</v>
+        <v>0.2617538799028893</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3061969542769906</v>
+        <v>0.3067541062563583</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>402646</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>380545</v>
+        <v>382471</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>422048</v>
+        <v>422904</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7114736970119065</v>
+        <v>0.7114736970119064</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6724201228916076</v>
+        <v>0.6758243284868826</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7457569564429336</v>
+        <v>0.7472690231903407</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1030</v>
@@ -4157,19 +4157,19 @@
         <v>583314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>562321</v>
+        <v>561466</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>601972</v>
+        <v>601282</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7198213394673427</v>
+        <v>0.7198213394673426</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6939155821967967</v>
+        <v>0.6928608154323909</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7428457915611903</v>
+        <v>0.7419942815199095</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1536</v>
@@ -4178,19 +4178,19 @@
         <v>985959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>954875</v>
+        <v>954108</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1015515</v>
+        <v>1016041</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7163887795605245</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6938030457230095</v>
+        <v>0.6932458937436415</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7378632462079451</v>
+        <v>0.7382461200971107</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>313193</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>276134</v>
+        <v>279092</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>352019</v>
+        <v>353671</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1423974867997421</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1255481457478791</v>
+        <v>0.1268928270014422</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1600502547712814</v>
+        <v>0.1608014290445156</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>438</v>
@@ -4303,19 +4303,19 @@
         <v>354800</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>322325</v>
+        <v>321639</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>387028</v>
+        <v>388249</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1644462957736443</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1493944870356484</v>
+        <v>0.1490762153861072</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1793832040907997</v>
+        <v>0.179949199182821</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>701</v>
@@ -4324,19 +4324,19 @@
         <v>667993</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>619195</v>
+        <v>618377</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>721638</v>
+        <v>715562</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1533159187138377</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1421159720411453</v>
+        <v>0.1419280732811145</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1656282034070694</v>
+        <v>0.1642338596987065</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1886234</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1847408</v>
+        <v>1845756</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1923293</v>
+        <v>1920335</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8576025132002578</v>
+        <v>0.8576025132002579</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8399497452287185</v>
+        <v>0.8391985709554842</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8744518542521209</v>
+        <v>0.8731071729985577</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2465</v>
@@ -4374,19 +4374,19 @@
         <v>1802746</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1770518</v>
+        <v>1769297</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1835221</v>
+        <v>1835907</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8355537042263558</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8206167959092002</v>
+        <v>0.8200508008171791</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8506055129643517</v>
+        <v>0.8509237846138928</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4177</v>
@@ -4395,19 +4395,19 @@
         <v>3688980</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3635335</v>
+        <v>3641411</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3737778</v>
+        <v>3738596</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8466840812861623</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8343717965929307</v>
+        <v>0.8357661403012936</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8578840279588545</v>
+        <v>0.8580719267188854</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>22260</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12954</v>
+        <v>13598</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34781</v>
+        <v>36374</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03146396294416251</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01830950507091292</v>
+        <v>0.01922105851375815</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04916225951265582</v>
+        <v>0.05141428628130042</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -4520,19 +4520,19 @@
         <v>41735</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30833</v>
+        <v>30628</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57194</v>
+        <v>56301</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05767699983985132</v>
+        <v>0.05767699983985131</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0426105808218185</v>
+        <v>0.04232697346566747</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07904100125917941</v>
+        <v>0.07780789115785754</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -4541,19 +4541,19 @@
         <v>63995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49060</v>
+        <v>49807</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83221</v>
+        <v>84127</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0447180790053299</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03428219281532457</v>
+        <v>0.03480375281439977</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05815278280616946</v>
+        <v>0.05878640964388718</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>685217</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>672696</v>
+        <v>671103</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>694523</v>
+        <v>693879</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9685360370558374</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9508377404873446</v>
+        <v>0.9485857137186997</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9816904949290871</v>
+        <v>0.9807789414862419</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>942</v>
@@ -4591,19 +4591,19 @@
         <v>681858</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>666399</v>
+        <v>667292</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>692760</v>
+        <v>692965</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9423230001601489</v>
+        <v>0.9423230001601486</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9209589987408207</v>
+        <v>0.9221921088421425</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9573894191781815</v>
+        <v>0.9576730265343324</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1601</v>
@@ -4612,19 +4612,19 @@
         <v>1367075</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1347849</v>
+        <v>1346943</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1382010</v>
+        <v>1381263</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9552819209946702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9418472171938307</v>
+        <v>0.9412135903561127</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9657178071846755</v>
+        <v>0.9651962471856003</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>498739</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>452965</v>
+        <v>455316</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>545661</v>
+        <v>548852</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.143611515226103</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1304308593182729</v>
+        <v>0.1311076543928618</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1571225106089056</v>
+        <v>0.1580414268863335</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>861</v>
@@ -4737,19 +4737,19 @@
         <v>623580</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>582764</v>
+        <v>582091</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>669741</v>
+        <v>665601</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1689234032963963</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1578665483949151</v>
+        <v>0.157684381968925</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1814279539651346</v>
+        <v>0.1803064643839306</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1316</v>
@@ -4758,19 +4758,19 @@
         <v>1122320</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1062142</v>
+        <v>1060820</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1184457</v>
+        <v>1178594</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.156653727551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1482541747220992</v>
+        <v>0.1480695386993848</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1653268461291947</v>
+        <v>0.1645085653799081</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2974098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2927176</v>
+        <v>2923985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3019872</v>
+        <v>3017521</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8563884847738972</v>
+        <v>0.856388484773897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8428774893910944</v>
+        <v>0.8419585731136664</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8695691406817271</v>
+        <v>0.8688923456071382</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4437</v>
@@ -4808,19 +4808,19 @@
         <v>3067917</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3021756</v>
+        <v>3025896</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3108733</v>
+        <v>3109406</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8310765967036036</v>
+        <v>0.8310765967036038</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8185720460348654</v>
+        <v>0.8196935356160693</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8421334516050849</v>
+        <v>0.8423156180310754</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7314</v>
@@ -4829,19 +4829,19 @@
         <v>6042014</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5979877</v>
+        <v>5985740</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6102192</v>
+        <v>6103514</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8433462724490001</v>
+        <v>0.843346272449</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8346731538708054</v>
+        <v>0.8354914346200918</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8517458252779008</v>
+        <v>0.8519304613006152</v>
       </c>
     </row>
     <row r="15">
